--- a/Assets/Excel/TestInfo.xlsx
+++ b/Assets/Excel/TestInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\Hali_Framework\Assets\Art\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\HFramework\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017F5DD-1D30-4633-B0B9-FE2D7AA27DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E6418A-9AB2-4669-A52E-BAD39DC3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7356" yWindow="5016" windowWidth="22020" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestInfo1" sheetId="1" r:id="rId1"/>
@@ -454,15 +454,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -490,12 +490,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -523,7 +523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -537,7 +537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -551,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -594,9 +594,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -630,12 +630,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -686,7 +686,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -720,7 +720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
